--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEB9F0E-4F93-D948-86ED-614FE0E2312D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352AA32-39FA-E44C-B57C-A2BBB4B2A552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="9980" windowWidth="26920" windowHeight="17140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="591">
   <si>
     <t>Accession</t>
   </si>
@@ -1754,9 +1754,6 @@
     <t>MELVmpf</t>
   </si>
   <si>
-    <t>Springhare</t>
-  </si>
-  <si>
     <t>ELVgv-con</t>
   </si>
   <si>
@@ -1769,9 +1766,6 @@
     <t>RELIK-con</t>
   </si>
   <si>
-    <t>Springhare-con</t>
-  </si>
-  <si>
     <t>Dermoptera</t>
   </si>
   <si>
@@ -1796,7 +1790,19 @@
     <t>Mustelidae</t>
   </si>
   <si>
-    <t>Lagomorph</t>
+    <t>ELVpc-con</t>
+  </si>
+  <si>
+    <t>Pedetes capensis</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Leporidae</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -2376,7 +2382,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="A1:G6"/>
+      <selection activeCell="G6" sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2414,7 +2420,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B2" t="s">
         <v>572</v>
@@ -2423,21 +2429,21 @@
         <v>572</v>
       </c>
       <c r="D2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B3" t="s">
         <v>573</v>
@@ -2446,21 +2452,21 @@
         <v>573</v>
       </c>
       <c r="D3" t="s">
+        <v>579</v>
+      </c>
+      <c r="E3" t="s">
         <v>581</v>
       </c>
-      <c r="E3" t="s">
-        <v>583</v>
-      </c>
       <c r="F3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="G3" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B4" t="s">
         <v>323</v>
@@ -2469,21 +2475,21 @@
         <v>323</v>
       </c>
       <c r="D4" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" t="s">
         <v>581</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>582</v>
+      </c>
+      <c r="G4" t="s">
         <v>583</v>
-      </c>
-      <c r="F4" t="s">
-        <v>584</v>
-      </c>
-      <c r="G4" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B5" t="s">
         <v>322</v>
@@ -2492,39 +2498,39 @@
         <v>322</v>
       </c>
       <c r="D5" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="E5" t="s">
         <v>581</v>
       </c>
-      <c r="E5" t="s">
-        <v>583</v>
-      </c>
       <c r="F5" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" t="s">
         <v>588</v>
-      </c>
-      <c r="G5" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="C6" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="D6" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E6" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F6" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="G6" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Retroviruses/Lentivirus-GLUE/tabular/erv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4352AA32-39FA-E44C-B57C-A2BBB4B2A552}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9F152-E9DB-EE47-A7D6-415AB0A48755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="598">
   <si>
     <t>Accession</t>
   </si>
@@ -1803,6 +1803,27 @@
   </si>
   <si>
     <t>species</t>
+  </si>
+  <si>
+    <t>PSIV1</t>
+  </si>
+  <si>
+    <t>ELVpc</t>
+  </si>
+  <si>
+    <t>Dermompteran endogenous lentivirus</t>
+  </si>
+  <si>
+    <t>Mustelid endogenous nlentvirus</t>
+  </si>
+  <si>
+    <t>Prosimian lentivirus 1</t>
+  </si>
+  <si>
+    <t>Rabbit endogenous lentivirus type K</t>
+  </si>
+  <si>
+    <t>Springhare endogenous lentivirus</t>
   </si>
 </sst>
 </file>
@@ -2382,13 +2403,13 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="A1:G6"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="5" max="5" width="21.6640625" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
@@ -2423,7 +2444,7 @@
         <v>574</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
         <v>572</v>
@@ -2446,7 +2467,7 @@
         <v>575</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="C3" t="s">
         <v>573</v>
@@ -2469,10 +2490,10 @@
         <v>576</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>595</v>
       </c>
       <c r="C4" t="s">
-        <v>323</v>
+        <v>591</v>
       </c>
       <c r="D4" t="s">
         <v>579</v>
@@ -2492,7 +2513,7 @@
         <v>577</v>
       </c>
       <c r="B5" t="s">
-        <v>322</v>
+        <v>596</v>
       </c>
       <c r="C5" t="s">
         <v>322</v>
@@ -2515,10 +2536,10 @@
         <v>586</v>
       </c>
       <c r="B6" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C6" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D6" t="s">
         <v>580</v>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB9F152-E9DB-EE47-A7D6-415AB0A48755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1EC2F-C3EE-F64D-869E-19909E2D90B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="604">
   <si>
     <t>Accession</t>
   </si>
@@ -1754,45 +1754,21 @@
     <t>MELVmpf</t>
   </si>
   <si>
-    <t>ELVgv-con</t>
-  </si>
-  <si>
-    <t>MELVmpf-con</t>
-  </si>
-  <si>
-    <t>pSIVgml-con</t>
-  </si>
-  <si>
     <t>RELIK-con</t>
   </si>
   <si>
     <t>Dermoptera</t>
   </si>
   <si>
-    <t>Carnivore</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
     <t>consensus</t>
   </si>
   <si>
-    <t>Strepsirrhini</t>
-  </si>
-  <si>
-    <t>suborder</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
     <t>Mustelidae</t>
   </si>
   <si>
-    <t>ELVpc-con</t>
-  </si>
-  <si>
     <t>Pedetes capensis</t>
   </si>
   <si>
@@ -1824,6 +1800,48 @@
   </si>
   <si>
     <t>Springhare endogenous lentivirus</t>
+  </si>
+  <si>
+    <t>PSIV1-con</t>
+  </si>
+  <si>
+    <t>SpELV-con</t>
+  </si>
+  <si>
+    <t>MELV-con</t>
+  </si>
+  <si>
+    <t>DELV-con</t>
+  </si>
+  <si>
+    <t>Microcebus</t>
+  </si>
+  <si>
+    <t>PSIV2-con</t>
+  </si>
+  <si>
+    <t>Prosimian lentivirus 2</t>
+  </si>
+  <si>
+    <t>PSIV2</t>
+  </si>
+  <si>
+    <t>Prosimian</t>
+  </si>
+  <si>
+    <t>Leporid</t>
+  </si>
+  <si>
+    <t>Pedetes</t>
+  </si>
+  <si>
+    <t>Mustelid</t>
+  </si>
+  <si>
+    <t>Dermopteran</t>
+  </si>
+  <si>
+    <t>Cheirogaleus</t>
   </si>
 </sst>
 </file>
@@ -2400,10 +2418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B72CCB-88DE-2049-8047-9EF1763B24DD}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2411,7 +2429,8 @@
     <col min="1" max="1" width="32.83203125" customWidth="1"/>
     <col min="2" max="2" width="37.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
     <col min="6" max="6" width="25.1640625" customWidth="1"/>
     <col min="7" max="7" width="23.1640625" customWidth="1"/>
   </cols>
@@ -2441,117 +2460,140 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
       <c r="B2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C2" t="s">
         <v>572</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
       <c r="E2" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="G2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>575</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="C3" t="s">
         <v>573</v>
       </c>
       <c r="D3" t="s">
-        <v>579</v>
+        <v>601</v>
       </c>
       <c r="E3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F3" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G3" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>590</v>
+      </c>
+      <c r="B4" t="s">
+        <v>587</v>
+      </c>
+      <c r="C4" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" t="s">
+        <v>598</v>
+      </c>
+      <c r="E4" t="s">
         <v>576</v>
       </c>
-      <c r="B4" t="s">
-        <v>595</v>
-      </c>
-      <c r="C4" t="s">
-        <v>591</v>
-      </c>
-      <c r="D4" t="s">
-        <v>579</v>
-      </c>
-      <c r="E4" t="s">
-        <v>581</v>
-      </c>
       <c r="F4" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="G4" t="s">
-        <v>583</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s">
         <v>596</v>
       </c>
       <c r="C5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>579</v>
+        <v>597</v>
+      </c>
+      <c r="D5" t="s">
+        <v>598</v>
       </c>
       <c r="E5" t="s">
-        <v>581</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>589</v>
+        <v>576</v>
+      </c>
+      <c r="F5" t="s">
+        <v>603</v>
       </c>
       <c r="G5" t="s">
-        <v>588</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="B6" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" t="s">
+        <v>322</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>599</v>
+      </c>
+      <c r="E6" t="s">
+        <v>576</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="G6" t="s">
         <v>580</v>
       </c>
-      <c r="E6" t="s">
-        <v>581</v>
-      </c>
-      <c r="F6" t="s">
-        <v>587</v>
-      </c>
-      <c r="G6" t="s">
-        <v>590</v>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>591</v>
+      </c>
+      <c r="B7" t="s">
+        <v>589</v>
+      </c>
+      <c r="C7" t="s">
+        <v>584</v>
+      </c>
+      <c r="D7" t="s">
+        <v>600</v>
+      </c>
+      <c r="E7" t="s">
+        <v>576</v>
+      </c>
+      <c r="F7" t="s">
+        <v>579</v>
+      </c>
+      <c r="G7" t="s">
+        <v>582</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1EC2F-C3EE-F64D-869E-19909E2D90B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90FC384-2AD1-9E49-A871-A63267D836A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30100" yWindow="6900" windowWidth="27920" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -1748,9 +1748,6 @@
     <t>reftype</t>
   </si>
   <si>
-    <t>ELVgv</t>
-  </si>
-  <si>
     <t>MELVmpf</t>
   </si>
   <si>
@@ -1784,12 +1781,6 @@
     <t>PSIV1</t>
   </si>
   <si>
-    <t>ELVpc</t>
-  </si>
-  <si>
-    <t>Dermompteran endogenous lentivirus</t>
-  </si>
-  <si>
     <t>Mustelid endogenous nlentvirus</t>
   </si>
   <si>
@@ -1842,6 +1833,15 @@
   </si>
   <si>
     <t>Cheirogaleus</t>
+  </si>
+  <si>
+    <t>SpELV</t>
+  </si>
+  <si>
+    <t>DELV</t>
+  </si>
+  <si>
+    <t>Dermopteran endogenous lentivirus</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2421,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D3" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2460,68 +2460,68 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B2" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
       <c r="C2" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="D2" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E2" t="s">
+        <v>575</v>
+      </c>
+      <c r="F2" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" t="s">
         <v>576</v>
-      </c>
-      <c r="F2" t="s">
-        <v>575</v>
-      </c>
-      <c r="G2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="C3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="E3" t="s">
+        <v>575</v>
+      </c>
+      <c r="F3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" t="s">
         <v>576</v>
-      </c>
-      <c r="F3" t="s">
-        <v>578</v>
-      </c>
-      <c r="G3" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B4" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D4" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="G4" t="s">
         <v>460</v>
@@ -2529,22 +2529,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>592</v>
+      </c>
+      <c r="B5" t="s">
+        <v>593</v>
+      </c>
+      <c r="C5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D5" t="s">
         <v>595</v>
       </c>
-      <c r="B5" t="s">
-        <v>596</v>
-      </c>
-      <c r="C5" t="s">
-        <v>597</v>
-      </c>
-      <c r="D5" t="s">
-        <v>598</v>
-      </c>
       <c r="E5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="G5" t="s">
         <v>460</v>
@@ -2552,48 +2552,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C6" t="s">
         <v>322</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="E6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C7" t="s">
-        <v>584</v>
+        <v>601</v>
       </c>
       <c r="D7" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="E7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECF86A1-8CE6-0847-A017-DE53C1AD3BC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A077C6E6-76F5-D046-BAFB-8045A8CEFB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23280" yWindow="6900" windowWidth="27920" windowHeight="17540" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5600" yWindow="1400" windowWidth="40180" windowHeight="26200" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1777" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="595">
   <si>
     <t>Accession</t>
   </si>
@@ -1738,9 +1738,6 @@
     <t>Mustelidae</t>
   </si>
   <si>
-    <t>Pedetes capensis</t>
-  </si>
-  <si>
     <t>family</t>
   </si>
   <si>
@@ -1814,6 +1811,9 @@
   </si>
   <si>
     <t>Dermopteran endogenous lentivirus</t>
+  </si>
+  <si>
+    <t>Host_sci_name</t>
   </si>
 </sst>
 </file>
@@ -1840,14 +1840,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1887,6 +1879,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2011,24 +2011,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2380,7 +2380,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:M8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2395,40 +2395,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="25" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>560</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E2" t="s">
         <v>566</v>
@@ -2442,16 +2442,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C3" t="s">
         <v>563</v>
       </c>
       <c r="D3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E3" t="s">
         <v>566</v>
@@ -2465,22 +2465,22 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E4" t="s">
         <v>566</v>
       </c>
       <c r="F4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G4" t="s">
         <v>451</v>
@@ -2488,22 +2488,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" t="s">
         <v>583</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>584</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>585</v>
-      </c>
-      <c r="D5" t="s">
-        <v>586</v>
       </c>
       <c r="E5" t="s">
         <v>566</v>
       </c>
       <c r="F5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G5" t="s">
         <v>451</v>
@@ -2514,45 +2514,45 @@
         <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C6" t="s">
         <v>318</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>587</v>
+      <c r="D6" s="24" t="s">
+        <v>586</v>
       </c>
       <c r="E6" t="s">
         <v>566</v>
       </c>
-      <c r="F6" s="26" t="s">
-        <v>571</v>
+      <c r="F6" s="24" t="s">
+        <v>570</v>
       </c>
       <c r="G6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E7" t="s">
         <v>566</v>
       </c>
       <c r="F7" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
       <c r="G7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
   </sheetData>
@@ -2564,8 +2564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="A1:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2574,609 +2574,609 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>559</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="24" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="24" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="24" t="s">
         <v>452</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="I1" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>469</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>472</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>473</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>474</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="24" t="s">
         <v>475</v>
       </c>
-      <c r="J4" s="26" t="s">
+      <c r="J4" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="24"/>
+      <c r="F5" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="24" t="s">
         <v>479</v>
       </c>
-      <c r="J5" s="26" t="s">
+      <c r="J5" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="24" t="s">
         <v>484</v>
       </c>
-      <c r="J6" s="26" t="s">
+      <c r="J6" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="24" t="s">
         <v>486</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="F7" s="26" t="s">
+      <c r="F7" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="24" t="s">
         <v>488</v>
       </c>
-      <c r="J7" s="26" t="s">
+      <c r="J7" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>489</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="J8" s="26" t="s">
+      <c r="J8" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="L8" s="26" t="s">
+      <c r="L8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="26" t="s">
+      <c r="M8" s="24" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="24" t="s">
         <v>490</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="24" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I9" s="26" t="s">
+      <c r="I9" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="24" t="s">
         <v>312</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="24">
         <v>1986</v>
       </c>
-      <c r="M9" s="26" t="s">
+      <c r="M9" s="24" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="24" t="s">
         <v>496</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="24" t="s">
         <v>497</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="24" t="s">
         <v>498</v>
       </c>
-      <c r="J10" s="26" t="s">
+      <c r="J10" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="26" t="s">
+      <c r="B11" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="24" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="24" t="s">
         <v>500</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="24" t="s">
         <v>407</v>
       </c>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="24" t="s">
         <v>502</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H12" s="26" t="s">
+      <c r="H12" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I12" s="26" t="s">
+      <c r="I12" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="J12" s="26" t="s">
+      <c r="J12" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="K12" s="26" t="s">
+      <c r="K12" s="24" t="s">
         <v>504</v>
       </c>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="24" t="s">
         <v>505</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="24" t="s">
         <v>506</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="24" t="s">
         <v>556</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="24" t="s">
         <v>558</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="24" t="s">
         <v>495</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="24" t="s">
         <v>511</v>
       </c>
-      <c r="J14" s="26" t="s">
+      <c r="J14" s="24" t="s">
         <v>405</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="24" t="s">
         <v>513</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="24" t="s">
         <v>514</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="24" t="s">
         <v>399</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="24"/>
+      <c r="F16" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="J16" s="26" t="s">
+      <c r="J16" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>520</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="24" t="s">
         <v>521</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="24" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="24"/>
+      <c r="F17" s="24" t="s">
         <v>457</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="24" t="s">
         <v>459</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="24" t="s">
         <v>523</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -8160,1644 +8160,1691 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScale="127" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="B16" sqref="A1:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="J1" s="17" t="s">
-        <v>434</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="K1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>455</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="20" t="s">
         <v>349</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I3" s="20" t="s">
+      <c r="I3" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="21" t="s">
         <v>466</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>469</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="I4" s="18" t="s">
         <v>470</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="J4" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>473</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>474</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="20" t="s">
         <v>328</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="18"/>
+      <c r="F6" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="18" t="s">
         <v>479</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="18" t="s">
         <v>480</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="18" t="s">
         <v>483</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="18" t="s">
         <v>484</v>
       </c>
-      <c r="J7" s="20" t="s">
+      <c r="J7" s="18" t="s">
         <v>429</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="17" t="s">
         <v>485</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>486</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>487</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="F8" s="20" t="s">
+      <c r="F8" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G8" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I8" s="20" t="s">
+      <c r="I8" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>489</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H9" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K9" s="24" t="s">
+      <c r="K9" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="L9" s="24" t="s">
+      <c r="L9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M9" s="24" t="s">
+      <c r="M9" s="22" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>490</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="22" t="s">
         <v>375</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F10" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G10" s="20" t="s">
+      <c r="G10" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H10" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I10" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K10" s="24" t="s">
+      <c r="K10" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="22">
         <v>1986</v>
       </c>
-      <c r="M10" s="24" t="s">
+      <c r="M10" s="22" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>491</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>492</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
+      <c r="E11" s="18"/>
+      <c r="F11" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="G11" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H11" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="18" t="s">
         <v>493</v>
       </c>
-      <c r="J11" s="20" t="s">
+      <c r="J11" s="18" t="s">
         <v>494</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>496</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>497</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G12" s="20" t="s">
+      <c r="G12" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H12" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="18" t="s">
         <v>498</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G13" s="20" t="s">
+      <c r="G13" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H13" s="20" t="s">
+      <c r="H13" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I13" s="20" t="s">
+      <c r="I13" s="18" t="s">
         <v>362</v>
       </c>
-      <c r="J13" s="20" t="s">
+      <c r="J13" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>501</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H14" s="20" t="s">
+      <c r="H14" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="18" t="s">
         <v>503</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="18" t="s">
         <v>504</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>505</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>506</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="H15" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="18" t="s">
         <v>507</v>
       </c>
-      <c r="J15" s="20" t="s">
+      <c r="J15" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="20" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>495</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>509</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>510</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G16" s="20" t="s">
+      <c r="G16" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H16" s="20" t="s">
+      <c r="H16" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I16" s="20" t="s">
+      <c r="I16" s="18" t="s">
         <v>511</v>
       </c>
-      <c r="J16" s="20" t="s">
+      <c r="J16" s="18" t="s">
         <v>405</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>512</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>514</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="18" t="s">
         <v>515</v>
       </c>
-      <c r="J17" s="20" t="s">
+      <c r="J17" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="20" t="s">
         <v>516</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>517</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>518</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20" t="s">
+      <c r="E18" s="18"/>
+      <c r="F18" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G18" s="20" t="s">
+      <c r="G18" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H18" s="20" t="s">
+      <c r="H18" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I18" s="20" t="s">
+      <c r="I18" s="18" t="s">
         <v>519</v>
       </c>
-      <c r="J18" s="20" t="s">
+      <c r="J18" s="18" t="s">
         <v>444</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>521</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20" t="s">
+      <c r="E19" s="18"/>
+      <c r="F19" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G19" s="20" t="s">
+      <c r="G19" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="H19" s="18" t="s">
         <v>459</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="J19" s="20" t="s">
+      <c r="J19" s="18" t="s">
         <v>523</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="24" t="s">
+      <c r="B20" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="22" t="s">
         <v>497</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G20" s="20" t="s">
+      <c r="G20" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H20" s="20" t="s">
+      <c r="H20" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="K20" s="24" t="s">
+      <c r="K20" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="L20" s="24" t="s">
+      <c r="L20" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="24" t="s">
+      <c r="M20" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G21" s="20" t="s">
+      <c r="G21" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="H21" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="K21" s="24" t="s">
+      <c r="K21" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="22">
         <v>1998</v>
       </c>
-      <c r="M21" s="24" t="s">
+      <c r="M21" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C22" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G22" s="20" t="s">
+      <c r="G22" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H22" s="20" t="s">
+      <c r="H22" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="K22" s="24" t="s">
+      <c r="K22" s="22" t="s">
         <v>309</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="22">
         <v>2010</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="22" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C23" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G23" s="20" t="s">
+      <c r="G23" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H23" s="20" t="s">
+      <c r="H23" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I23" s="21" t="s">
+      <c r="I23" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J23" s="21" t="s">
+      <c r="J23" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M23" s="24" t="s">
+      <c r="M23" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G24" s="20" t="s">
+      <c r="G24" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H24" s="20" t="s">
+      <c r="H24" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I24" s="21" t="s">
+      <c r="I24" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="J24" s="21" t="s">
+      <c r="J24" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="K24" s="24" t="s">
+      <c r="K24" s="22" t="s">
         <v>293</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="L24" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M24" s="24" t="s">
+      <c r="M24" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G25" s="20" t="s">
+      <c r="G25" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H25" s="20" t="s">
+      <c r="H25" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I25" s="21" t="s">
+      <c r="I25" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="J25" s="21" t="s">
+      <c r="J25" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="K25" s="24" t="s">
+      <c r="K25" s="22" t="s">
         <v>259</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="22">
         <v>1999</v>
       </c>
-      <c r="M25" s="24" t="s">
+      <c r="M25" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>353</v>
       </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G26" s="20" t="s">
+      <c r="G26" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H26" s="20" t="s">
+      <c r="H26" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I26" s="21" t="s">
+      <c r="I26" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="J26" s="21" t="s">
+      <c r="J26" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="K26" s="21" t="s">
+      <c r="K26" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="L26" s="24"/>
-      <c r="M26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="19"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G27" s="20" t="s">
+      <c r="G27" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H27" s="20" t="s">
+      <c r="H27" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I27" s="21" t="s">
+      <c r="I27" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="J27" s="21" t="s">
+      <c r="J27" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="K27" s="24" t="s">
+      <c r="K27" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="22">
         <v>1998</v>
       </c>
-      <c r="M27" s="24" t="s">
+      <c r="M27" s="22" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="20" t="s">
         <v>345</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G28" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H28" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="J28" s="21" t="s">
+      <c r="J28" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="K28" s="21" t="s">
+      <c r="K28" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="L28" s="24"/>
-      <c r="M28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="19"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C29" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G29" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H29" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I29" s="21" t="s">
+      <c r="I29" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="K29" s="21" t="s">
+      <c r="K29" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="19"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G30" s="20" t="s">
+      <c r="G30" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H30" s="20" t="s">
+      <c r="H30" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J30" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="K30" s="24" t="s">
+      <c r="K30" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="22">
         <v>1998</v>
       </c>
-      <c r="M30" s="24" t="s">
+      <c r="M30" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C31" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E31" s="21" t="s">
+      <c r="E31" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G31" s="20" t="s">
+      <c r="G31" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H31" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I31" s="21" t="s">
+      <c r="I31" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="J31" s="21" t="s">
+      <c r="J31" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="K31" s="24">
+      <c r="K31" s="22">
         <v>266</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="22">
         <v>2000</v>
       </c>
-      <c r="M31" s="24" t="s">
+      <c r="M31" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E32" s="21" t="s">
+      <c r="E32" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G32" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H32" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I32" s="21" t="s">
+      <c r="I32" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="J32" s="21" t="s">
+      <c r="J32" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="K32" s="24" t="s">
+      <c r="K32" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="22">
         <v>2004</v>
       </c>
-      <c r="M32" s="24" t="s">
+      <c r="M32" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E33" s="21" t="s">
+      <c r="E33" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G33" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H33" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I33" s="21" t="s">
+      <c r="I33" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="J33" s="21" t="s">
+      <c r="J33" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="K33" s="24" t="s">
+      <c r="K33" s="22" t="s">
         <v>290</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="22">
         <v>1997</v>
       </c>
-      <c r="M33" s="24" t="s">
+      <c r="M33" s="22" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="B34" s="20"/>
-      <c r="C34" s="24" t="s">
+      <c r="B34" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C34" s="22" t="s">
         <v>344</v>
       </c>
-      <c r="D34" s="21" t="s">
+      <c r="D34" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="22" t="s">
         <v>376</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G34" s="20" t="s">
+      <c r="G34" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H34" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I34" s="21" t="s">
+      <c r="I34" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J34" s="21" t="s">
+      <c r="J34" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K34" s="24" t="s">
+      <c r="K34" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="22">
         <v>2006</v>
       </c>
-      <c r="M34" s="24" t="s">
+      <c r="M34" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="D35" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E35" s="21" t="s">
+      <c r="E35" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G35" s="20" t="s">
+      <c r="G35" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H35" s="20" t="s">
+      <c r="H35" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I35" s="24" t="s">
+      <c r="I35" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="J35" s="21" t="s">
+      <c r="J35" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="K35" s="24" t="s">
+      <c r="K35" s="22" t="s">
         <v>296</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="22">
         <v>1992</v>
       </c>
-      <c r="M35" s="24" t="s">
+      <c r="M35" s="22" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C36" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="D36" s="21" t="s">
+      <c r="D36" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="21" t="s">
+      <c r="E36" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G36" s="20" t="s">
+      <c r="G36" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H36" s="20" t="s">
+      <c r="H36" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I36" s="21" t="s">
+      <c r="I36" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="K36" s="24" t="s">
+      <c r="K36" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="22">
         <v>2009</v>
       </c>
-      <c r="M36" s="24" t="s">
+      <c r="M36" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="D37" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E37" s="21" t="s">
+      <c r="E37" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G37" s="20" t="s">
+      <c r="G37" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H37" s="20" t="s">
+      <c r="H37" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I37" s="21" t="s">
+      <c r="I37" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="K37" s="24" t="s">
+      <c r="K37" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="22">
         <v>2010</v>
       </c>
-      <c r="M37" s="24" t="s">
+      <c r="M37" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>350</v>
       </c>
-      <c r="D38" s="21" t="s">
+      <c r="D38" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H38" s="20" t="s">
+      <c r="H38" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I38" s="20" t="s">
+      <c r="I38" s="18" t="s">
         <v>411</v>
       </c>
-      <c r="J38" s="20" t="s">
+      <c r="J38" s="18" t="s">
         <v>466</v>
       </c>
-      <c r="K38" s="20" t="s">
+      <c r="K38" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="23">
         <v>2005</v>
       </c>
-      <c r="M38" s="20" t="s">
+      <c r="M38" s="18" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="D39" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E39" s="21" t="s">
+      <c r="E39" s="19" t="s">
         <v>514</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G39" s="20" t="s">
+      <c r="G39" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H39" s="20" t="s">
+      <c r="H39" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="I39" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="K39" s="24" t="s">
+      <c r="K39" s="22" t="s">
         <v>284</v>
       </c>
-      <c r="L39" s="24" t="s">
+      <c r="L39" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M39" s="24" t="s">
+      <c r="M39" s="22" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21" t="s">
+      <c r="B40" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C40" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="D40" s="21" t="s">
+      <c r="D40" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E40" s="21" t="s">
+      <c r="E40" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G40" s="20" t="s">
+      <c r="G40" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H40" s="20" t="s">
+      <c r="H40" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I40" s="21" t="s">
+      <c r="I40" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="K40" s="24" t="s">
+      <c r="K40" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="L40" s="24" t="s">
+      <c r="L40" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="M40" s="24" t="s">
+      <c r="M40" s="22" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>551</v>
       </c>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D41" s="21" t="s">
+      <c r="D41" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E41" s="24" t="s">
+      <c r="E41" s="22" t="s">
         <v>372</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G41" s="20" t="s">
+      <c r="G41" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H41" s="20" t="s">
+      <c r="H41" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I41" s="21" t="s">
+      <c r="I41" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J41" s="21" t="s">
+      <c r="J41" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K41" s="24" t="s">
+      <c r="K41" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="22">
         <v>2004</v>
       </c>
-      <c r="M41" s="24" t="s">
+      <c r="M41" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="20" t="s">
         <v>485</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D42" s="21" t="s">
+      <c r="D42" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E42" s="24" t="s">
+      <c r="E42" s="22" t="s">
         <v>370</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G42" s="20" t="s">
+      <c r="G42" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H42" s="20" t="s">
+      <c r="H42" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I42" s="21" t="s">
+      <c r="I42" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J42" s="21" t="s">
+      <c r="J42" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K42" s="21" t="s">
+      <c r="K42" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="22">
         <v>1983</v>
       </c>
-      <c r="M42" s="21" t="s">
+      <c r="M42" s="19" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B43" s="20" t="s">
+      <c r="B43" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D43" s="21" t="s">
+      <c r="D43" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E43" s="24" t="s">
+      <c r="E43" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G43" s="20" t="s">
+      <c r="G43" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H43" s="20" t="s">
+      <c r="H43" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I43" s="20" t="s">
+      <c r="I43" s="18" t="s">
         <v>488</v>
       </c>
-      <c r="J43" s="20" t="s">
+      <c r="J43" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="B44" s="20" t="s">
+      <c r="B44" s="18" t="s">
         <v>552</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="21" t="s">
+      <c r="D44" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="E44" s="24" t="s">
+      <c r="E44" s="22" t="s">
         <v>373</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="G44" s="20" t="s">
+      <c r="G44" s="18" t="s">
         <v>458</v>
       </c>
-      <c r="H44" s="20" t="s">
+      <c r="H44" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="I44" s="21" t="s">
+      <c r="I44" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="K44" s="24" t="s">
+      <c r="K44" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="22">
         <v>1991</v>
       </c>
-      <c r="M44" s="24" t="s">
+      <c r="M44" s="22" t="s">
         <v>66</v>
       </c>
     </row>

--- a/tabular/erv/erv-refseqs-side-data.xlsx
+++ b/tabular/erv/erv-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/Retrovirus/Lentivirus-GLUE/tabular/erv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95AF07BA-27CC-7A4F-AC9D-B55DD345F165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8DAB34-03C6-B648-BD43-701A21D7CDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5600" yWindow="1400" windowWidth="40180" windowHeight="26200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="11140" windowWidth="40180" windowHeight="26200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NEW" sheetId="7" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>reftype</t>
   </si>
   <si>
-    <t>MELVmpf</t>
-  </si>
-  <si>
     <t>RELIK-con</t>
   </si>
   <si>
@@ -145,6 +142,9 @@
   </si>
   <si>
     <t>Dermopteran endogenous lentivirus</t>
+  </si>
+  <si>
+    <t>MELV</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G7" sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -588,68 +588,68 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
         <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
@@ -657,22 +657,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
@@ -680,48 +680,48 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
